--- a/Data/Input/Employers/hp_inc.xlsx
+++ b/Data/Input/Employers/hp_inc.xlsx
@@ -602,7 +602,7 @@
       <x:selection activeCell="C1" sqref="C1"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="35.744531" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <x:sheetFormatPr defaultColWidth="57.063281" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <x:cols>
     <x:col min="1" max="1" width="32.140625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="18.425781" style="0" customWidth="1"/>
